--- a/UMS_Test/TestData/Student/Admission/AdmissionData.xlsx
+++ b/UMS_Test/TestData/Student/Admission/AdmissionData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPL\source\repos\UMS_Test\UMS_Test\TestData\Student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OPL\source\repos\UMS_Test\UMS_Test\TestData\Student\Admission\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C417E390-18DE-4871-A5F5-DD95BFF76B23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8573E1E9-8847-4C98-A472-5C203573730A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
   <si>
     <t>NickName</t>
   </si>
@@ -188,30 +188,6 @@
   </si>
   <si>
     <t>English,Physics,Chemistry, Higher Mathematics</t>
-  </si>
-  <si>
-    <t>Online Branch</t>
-  </si>
-  <si>
-    <t>Farmgate Udvash-Unmesh</t>
-  </si>
-  <si>
-    <t>Online Campus</t>
-  </si>
-  <si>
-    <t>Engineering Full Course (Combo)</t>
-  </si>
-  <si>
-    <t>Online Batch</t>
-  </si>
-  <si>
-    <t>8:00 PM To 10:30 PM</t>
-  </si>
-  <si>
-    <t>Engineering Admission Program (Online)</t>
-  </si>
-  <si>
-    <t>EAP Combo</t>
   </si>
   <si>
     <t>VaKa</t>
@@ -585,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,7 +666,7 @@
     </row>
     <row r="2" spans="1:24" s="1" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>52</v>
@@ -732,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="Q2" s="1" t="s">
         <v>31</v>
@@ -758,7 +734,7 @@
     </row>
     <row r="3" spans="1:24" s="1" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>52</v>
@@ -826,7 +802,7 @@
     </row>
     <row r="4" spans="1:24" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>52</v>
@@ -887,77 +863,6 @@
       </c>
       <c r="V4" s="1" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" s="1" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" t="s">
-        <v>29</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="1">
-        <v>10000</v>
       </c>
     </row>
   </sheetData>
